--- a/dadosCafe.xlsx
+++ b/dadosCafe.xlsx
@@ -1,24 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Desktop\LBD-Agronegocio\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267C10EA-FBBF-47D6-B36D-68FB36CCA241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="48" windowWidth="13332" windowHeight="4200" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Área colhida (Hectares)" sheetId="1" r:id="rId3"/>
-    <sheet name="Quantidade produzida (Tonela..." sheetId="2" r:id="rId4"/>
-    <sheet name="Rendimento médio da produção..." sheetId="3" r:id="rId5"/>
-    <sheet name="Valor da produção (Mil Reais)" sheetId="4" r:id="rId6"/>
-    <sheet name="Notas" sheetId="5" r:id="rId7"/>
+    <sheet name="Área colhida (Hectares)" sheetId="1" r:id="rId1"/>
+    <sheet name="Quantidade produzida (Tonela..." sheetId="2" r:id="rId2"/>
+    <sheet name="Rendimento médio da produção..." sheetId="3" r:id="rId3"/>
+    <sheet name="Valor da produção (Mil Reais)" sheetId="4" r:id="rId4"/>
+    <sheet name="Notas" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="68">
   <si>
     <t>Tabela 1613 - Área destinada à colheita, área colhida, quantidade produzida, rendimento médio e valor da produção das lavouras permanentes</t>
   </si>
@@ -235,14 +241,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color indexed="64"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <color indexed="64"/>
     </font>
   </fonts>
   <fills count="2">
@@ -253,7 +259,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -261,26 +267,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -288,133 +280,640 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+  <a:themeElements>
+    <a:clrScheme name="Office 2007 - 2010">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office 2007 - 2010">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office 2007 - 2010">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v/>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="BK4" s="1"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -602,7 +1101,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -793,13 +1292,95 @@
         <v>1544157</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="A7:BK7"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="A2:BK2"/>
     <mergeCell ref="A3:A5"/>
@@ -816,155 +1397,349 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="A7:BK7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v/>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="BK4" s="1"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1152,7 +1927,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1343,13 +2118,95 @@
         <v>2393732</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="A7:BK7"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="A2:BK2"/>
     <mergeCell ref="A3:A5"/>
@@ -1366,155 +2223,349 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="A7:BK7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v/>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="BK4" s="1"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -1702,7 +2753,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -1893,13 +2944,95 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="A7:BK7"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="A2:BK2"/>
     <mergeCell ref="A3:A5"/>
@@ -1916,155 +3049,351 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="A7:BK7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BL8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:BK7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP17" sqref="AP17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+      <c r="AM1" s="1"/>
+      <c r="AN1" s="1"/>
+      <c r="AO1" s="1"/>
+      <c r="AP1" s="1"/>
+      <c r="AQ1" s="1"/>
+      <c r="AR1" s="1"/>
+      <c r="AS1" s="1"/>
+      <c r="AT1" s="1"/>
+      <c r="AU1" s="1"/>
+      <c r="AV1" s="1"/>
+      <c r="AW1" s="1"/>
+      <c r="AX1" s="1"/>
+      <c r="AY1" s="1"/>
+      <c r="AZ1" s="1"/>
+      <c r="BA1" s="1"/>
+      <c r="BB1" s="1"/>
+      <c r="BC1" s="1"/>
+      <c r="BD1" s="1"/>
+      <c r="BE1" s="1"/>
+      <c r="BF1" s="1"/>
+      <c r="BG1" s="1"/>
+      <c r="BH1" s="1"/>
+      <c r="BI1" s="1"/>
+      <c r="BJ1" s="1"/>
+      <c r="BK1" s="1"/>
+    </row>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v/>
-      </c>
-      <c r="B3" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
+      <c r="AI2" s="1"/>
+      <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
+      <c r="AL2" s="1"/>
+      <c r="AM2" s="1"/>
+      <c r="AN2" s="1"/>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+      <c r="AR2" s="1"/>
+      <c r="AS2" s="1"/>
+      <c r="AT2" s="1"/>
+      <c r="AU2" s="1"/>
+      <c r="AV2" s="1"/>
+      <c r="AW2" s="1"/>
+      <c r="AX2" s="1"/>
+      <c r="AY2" s="1"/>
+      <c r="AZ2" s="1"/>
+      <c r="BA2" s="1"/>
+      <c r="BB2" s="1"/>
+      <c r="BC2" s="1"/>
+      <c r="BD2" s="1"/>
+      <c r="BE2" s="1"/>
+      <c r="BF2" s="1"/>
+      <c r="BG2" s="1"/>
+      <c r="BH2" s="1"/>
+      <c r="BI2" s="1"/>
+      <c r="BJ2" s="1"/>
+      <c r="BK2" s="1"/>
+    </row>
+    <row r="3" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
+      <c r="AI3" s="1"/>
+      <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+      <c r="AN3" s="1"/>
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+      <c r="AR3" s="1"/>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="1"/>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+      <c r="AY3" s="1"/>
+      <c r="AZ3" s="1"/>
+      <c r="BA3" s="1"/>
+      <c r="BB3" s="1"/>
+      <c r="BC3" s="1"/>
+      <c r="BD3" s="1"/>
+      <c r="BE3" s="1"/>
+      <c r="BF3" s="1"/>
+      <c r="BG3" s="1"/>
+      <c r="BH3" s="1"/>
+      <c r="BI3" s="1"/>
+      <c r="BJ3" s="1"/>
+      <c r="BK3" s="1"/>
+    </row>
+    <row r="4" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L4" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N4" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="P4" t="s">
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="R4" t="s">
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V4" t="s">
+      <c r="U4" s="1"/>
+      <c r="V4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="X4" t="s">
+      <c r="W4" s="1"/>
+      <c r="X4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AF4" t="s">
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AM4" s="1"/>
+      <c r="AN4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AP4" t="s">
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AQ4" s="1"/>
+      <c r="AR4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AS4" s="1"/>
+      <c r="AT4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AV4" t="s">
+      <c r="AU4" s="1"/>
+      <c r="AV4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AZ4" t="s">
+      <c r="AY4" s="1"/>
+      <c r="AZ4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BA4" s="1"/>
+      <c r="BB4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="BD4" t="s">
+      <c r="BC4" s="1"/>
+      <c r="BD4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="BF4" t="s">
+      <c r="BE4" s="1"/>
+      <c r="BF4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BG4" s="1"/>
+      <c r="BH4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BI4" s="1"/>
+      <c r="BJ4" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="BK4" s="1"/>
+    </row>
+    <row r="5" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
       <c r="B5" t="s">
         <v>34</v>
       </c>
@@ -2252,7 +3581,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:63" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -2365,91 +3694,173 @@
         <v>37</v>
       </c>
       <c r="AL6">
-        <v>38198272</v>
+        <v>13810664</v>
       </c>
       <c r="AM6">
         <v>13810664</v>
       </c>
       <c r="AN6">
-        <v>36385862</v>
+        <v>10377009</v>
       </c>
       <c r="AO6">
         <v>10377009</v>
       </c>
       <c r="AP6">
-        <v>42396990</v>
+        <v>12725990</v>
       </c>
       <c r="AQ6">
         <v>12725990</v>
       </c>
       <c r="AR6">
-        <v>48217722</v>
+        <v>12931400</v>
       </c>
       <c r="AS6">
         <v>12931400</v>
       </c>
       <c r="AT6">
-        <v>57978830</v>
+        <v>18548855</v>
       </c>
       <c r="AU6">
         <v>18548855</v>
       </c>
       <c r="AV6">
-        <v>56249875</v>
+        <v>14542231</v>
       </c>
       <c r="AW6">
         <v>14542231</v>
       </c>
       <c r="AX6">
-        <v>60501129</v>
+        <v>18076423</v>
       </c>
       <c r="AY6">
         <v>18076423</v>
       </c>
       <c r="AZ6">
-        <v>58753601</v>
+        <v>13559227</v>
       </c>
       <c r="BA6">
         <v>13559227</v>
       </c>
       <c r="BB6">
-        <v>75199911</v>
+        <v>22582460</v>
       </c>
       <c r="BC6">
         <v>22582460</v>
       </c>
       <c r="BD6">
-        <v>91524898</v>
+        <v>26836549</v>
       </c>
       <c r="BE6">
         <v>26836549</v>
       </c>
       <c r="BF6">
-        <v>117009581</v>
+        <v>39276510</v>
       </c>
       <c r="BG6">
         <v>39276510</v>
       </c>
       <c r="BH6">
-        <v>124050412</v>
+        <v>33124350</v>
       </c>
       <c r="BI6">
         <v>33124350</v>
       </c>
       <c r="BJ6">
-        <v>178159271</v>
+        <v>50996033</v>
       </c>
       <c r="BK6">
         <v>50996033</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="s">
+    <row r="7" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+      <c r="AR7" s="1"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1"/>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+      <c r="AY7" s="1"/>
+      <c r="AZ7" s="1"/>
+      <c r="BA7" s="1"/>
+      <c r="BB7" s="1"/>
+      <c r="BC7" s="1"/>
+      <c r="BD7" s="1"/>
+      <c r="BE7" s="1"/>
+      <c r="BF7" s="1"/>
+      <c r="BG7" s="1"/>
+      <c r="BH7" s="1"/>
+      <c r="BI7" s="1"/>
+      <c r="BJ7" s="1"/>
+      <c r="BK7" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="BD4:BE4"/>
+    <mergeCell ref="BF4:BG4"/>
+    <mergeCell ref="BH4:BI4"/>
+    <mergeCell ref="BJ4:BK4"/>
+    <mergeCell ref="A7:BK7"/>
+    <mergeCell ref="AT4:AU4"/>
+    <mergeCell ref="AV4:AW4"/>
+    <mergeCell ref="AX4:AY4"/>
+    <mergeCell ref="AZ4:BA4"/>
+    <mergeCell ref="BB4:BC4"/>
+    <mergeCell ref="AJ4:AK4"/>
+    <mergeCell ref="AL4:AM4"/>
+    <mergeCell ref="AN4:AO4"/>
+    <mergeCell ref="AP4:AQ4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
+    <mergeCell ref="AD4:AE4"/>
+    <mergeCell ref="AF4:AG4"/>
+    <mergeCell ref="AH4:AI4"/>
     <mergeCell ref="A1:BK1"/>
     <mergeCell ref="A2:BK2"/>
     <mergeCell ref="A3:A5"/>
@@ -2466,112 +3877,102 @@
     <mergeCell ref="T4:U4"/>
     <mergeCell ref="V4:W4"/>
     <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="Z4:AA4"/>
-    <mergeCell ref="AB4:AC4"/>
-    <mergeCell ref="AD4:AE4"/>
-    <mergeCell ref="AF4:AG4"/>
-    <mergeCell ref="AH4:AI4"/>
-    <mergeCell ref="AJ4:AK4"/>
-    <mergeCell ref="AL4:AM4"/>
-    <mergeCell ref="AN4:AO4"/>
-    <mergeCell ref="AP4:AQ4"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AT4:AU4"/>
-    <mergeCell ref="AV4:AW4"/>
-    <mergeCell ref="AX4:AY4"/>
-    <mergeCell ref="AZ4:BA4"/>
-    <mergeCell ref="BB4:BC4"/>
-    <mergeCell ref="BD4:BE4"/>
-    <mergeCell ref="BF4:BG4"/>
-    <mergeCell ref="BH4:BI4"/>
-    <mergeCell ref="BJ4:BK4"/>
-    <mergeCell ref="A7:BK7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
+      <c r="B1" s="1"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>56</v>
       </c>
@@ -2579,7 +3980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>58</v>
       </c>
@@ -2587,7 +3988,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>60</v>
       </c>
@@ -2595,7 +3996,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>62</v>
       </c>
@@ -2603,7 +4004,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2611,7 +4012,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -2619,7 +4020,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>66</v>
       </c>
@@ -2629,20 +4030,20 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
